--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="930">
   <si>
     <t>anchor score</t>
   </si>
@@ -379,463 +379,463 @@
     <t>avoid</t>
   </si>
   <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>idiots</t>
+  </si>
+  <si>
+    <t>hazard</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>rising</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>idiots</t>
-  </si>
-  <si>
-    <t>hazard</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>rising</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>st</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>goods</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>dear</t>
   </si>
   <si>
     <t>healthy</t>
@@ -3169,10 +3169,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K3">
         <v>0.9615384615384616</v>
@@ -3401,7 +3401,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K6">
         <v>0.8983050847457628</v>
@@ -3451,7 +3451,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K7">
         <v>0.8503937007874016</v>
@@ -3601,7 +3601,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K10">
         <v>0.8333333333333334</v>
@@ -3701,7 +3701,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K12">
         <v>0.7777777777777778</v>
@@ -3751,7 +3751,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K13">
         <v>0.7777777777777778</v>
@@ -3801,7 +3801,7 @@
         <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K14">
         <v>0.7088607594936709</v>
@@ -3851,7 +3851,7 @@
         <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K15">
         <v>0.6842105263157895</v>
@@ -3901,7 +3901,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K16">
         <v>0.6808510638297872</v>
@@ -4051,28 +4051,28 @@
         <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.6566523605150214</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L19">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="N19">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="O19">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4101,28 +4101,28 @@
         <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="K20">
-        <v>0.6538461538461539</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="N20">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4151,7 +4151,7 @@
         <v>9</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K21">
         <v>0.6312056737588653</v>
@@ -4351,7 +4351,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K25">
         <v>0.6</v>
@@ -4451,7 +4451,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K27">
         <v>0.5882352941176471</v>
@@ -4551,7 +4551,7 @@
         <v>5</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K29">
         <v>0.5714285714285714</v>
@@ -4601,7 +4601,7 @@
         <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K30">
         <v>0.5384615384615384</v>
@@ -4651,7 +4651,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K31">
         <v>0.5357142857142857</v>
@@ -4701,28 +4701,28 @@
         <v>5</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="K32">
-        <v>0.5335365853658537</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="L32">
         <v>175</v>
       </c>
       <c r="M32">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4751,7 +4751,7 @@
         <v>5</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K33">
         <v>0.5</v>
@@ -5001,7 +5001,7 @@
         <v>3</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K38">
         <v>0.4431818181818182</v>
@@ -5101,7 +5101,7 @@
         <v>7</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K40">
         <v>0.4264705882352941</v>
@@ -5151,7 +5151,7 @@
         <v>15</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K41">
         <v>0.4261168384879725</v>
@@ -5501,7 +5501,7 @@
         <v>13</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K48">
         <v>0.3805774278215223</v>
@@ -5901,7 +5901,7 @@
         <v>10</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K56">
         <v>0.3333333333333333</v>
@@ -6151,7 +6151,7 @@
         <v>22</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K61">
         <v>0.325</v>
@@ -6301,7 +6301,7 @@
         <v>29</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K64">
         <v>0.3095238095238095</v>
@@ -7401,7 +7401,7 @@
         <v>27</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K86">
         <v>0.25</v>
@@ -7501,7 +7501,7 @@
         <v>9</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K88">
         <v>0.25</v>
@@ -8001,7 +8001,7 @@
         <v>28</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K98">
         <v>0.2383177570093458</v>
@@ -8051,7 +8051,7 @@
         <v>19</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K99">
         <v>0.2333333333333333</v>
@@ -8301,7 +8301,7 @@
         <v>11</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K104">
         <v>0.2265060240963855</v>
@@ -8880,25 +8880,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.07272727272727272</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C116">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>187</v>
+        <v>2</v>
       </c>
       <c r="E116">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F116">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>79</v>
@@ -8930,25 +8930,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.07142857142857142</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E117">
-        <v>0.5</v>
+        <v>0.87</v>
       </c>
       <c r="F117">
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>335</v>
@@ -8980,25 +8980,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.06976744186046512</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
         <v>6</v>
       </c>
-      <c r="D118">
-        <v>159</v>
-      </c>
       <c r="E118">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F118">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>336</v>
@@ -9030,28 +9030,28 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K119">
         <v>0.2173913043478261</v>
@@ -9080,25 +9080,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E120">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F120">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>337</v>
@@ -9133,10 +9133,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -9148,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>338</v>
@@ -9186,16 +9186,16 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
         <v>14</v>
@@ -9233,10 +9233,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>340</v>
@@ -9301,7 +9301,7 @@
         <v>14</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K124">
         <v>0.2068965517241379</v>
@@ -9330,13 +9330,13 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>341</v>
@@ -9380,13 +9380,13 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>342</v>
@@ -9430,13 +9430,13 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -9448,10 +9448,10 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K127">
         <v>0.2</v>
@@ -9483,10 +9483,10 @@
         <v>0.0625</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>343</v>
@@ -9530,7 +9530,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>344</v>
@@ -9580,7 +9580,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9598,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>345</v>
@@ -9630,13 +9630,13 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.05882352941176471</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -9648,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>346</v>
@@ -9680,7 +9680,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>117</v>
@@ -9730,13 +9730,13 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.05714285714285714</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>347</v>
@@ -9780,13 +9780,13 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -9798,10 +9798,10 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K134">
         <v>0.1951219512195122</v>
@@ -9830,7 +9830,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -9848,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>348</v>
@@ -9880,13 +9880,13 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>349</v>
@@ -9936,22 +9936,22 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
         <v>18</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K137">
         <v>0.1851851851851852</v>
@@ -9986,16 +9986,16 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
         <v>18</v>
@@ -10036,13 +10036,13 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E139">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F139">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
@@ -10080,25 +10080,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.05263157894736842</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D140">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E140">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>352</v>
@@ -10130,25 +10130,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E141">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>353</v>
@@ -10180,25 +10180,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.05194805194805195</v>
+        <v>0.05</v>
       </c>
       <c r="C142">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>354</v>
@@ -10230,25 +10230,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.05</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>355</v>
@@ -10280,25 +10280,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="E144">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="F144">
-        <v>0.01000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>356</v>
@@ -10330,25 +10330,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.04878048780487805</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>357</v>
@@ -10380,7 +10380,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.04761904761904762</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10398,7 +10398,7 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>358</v>
@@ -10436,16 +10436,16 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147">
         <v>22</v>
@@ -10486,16 +10486,16 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
         <v>22</v>
@@ -10536,13 +10536,13 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F149">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
@@ -10601,7 +10601,7 @@
         <v>22</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K150">
         <v>0.1764705882352941</v>
@@ -10630,25 +10630,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="E151">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="F151">
-        <v>0.5</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>362</v>
@@ -10680,7 +10680,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -10698,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>363</v>
@@ -10730,25 +10730,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="E153">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="F153">
-        <v>0.02000000000000002</v>
+        <v>0.14</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>364</v>
@@ -10780,7 +10780,7 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -10798,10 +10798,10 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K154">
         <v>0.1708860759493671</v>
@@ -10836,16 +10836,16 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
         <v>24</v>
@@ -10880,25 +10880,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>366</v>
@@ -10930,25 +10930,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>367</v>
@@ -10980,7 +10980,7 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -10998,7 +10998,7 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>368</v>
@@ -11030,25 +11030,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E159">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F159">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>369</v>
@@ -11086,16 +11086,16 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E160">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
         <v>26</v>
@@ -11130,25 +11130,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>371</v>
@@ -11180,7 +11180,7 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -11198,10 +11198,10 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K162">
         <v>0.1666666666666667</v>
@@ -11236,16 +11236,16 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
         <v>27</v>
@@ -11386,16 +11386,16 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
         <v>27</v>
@@ -11430,25 +11430,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.03571428571428571</v>
+        <v>0.03355704697986577</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E167">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>376</v>
@@ -11480,25 +11480,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E168">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F168">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>377</v>
@@ -11530,25 +11530,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.03355704697986577</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C169">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>378</v>
@@ -11580,25 +11580,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.03333333333333333</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F170">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>379</v>
@@ -11636,13 +11636,13 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E171">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F171">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
@@ -11680,25 +11680,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E172">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F172">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>381</v>
@@ -11730,25 +11730,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E173">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F173">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>382</v>
@@ -11780,25 +11780,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>383</v>
@@ -11830,25 +11830,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.02857142857142857</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D175">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E175">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F175">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>384</v>
@@ -11880,7 +11880,7 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.02857142857142857</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -11898,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>385</v>
@@ -11930,25 +11930,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.02608695652173913</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>386</v>
@@ -11986,16 +11986,16 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
         <v>38</v>
@@ -12036,16 +12036,16 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179">
         <v>38</v>
@@ -12086,16 +12086,16 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
         <v>38</v>
@@ -12130,25 +12130,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.02564102564102564</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E181">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F181">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>390</v>
@@ -12180,25 +12180,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.02564102564102564</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>391</v>
@@ -12230,25 +12230,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E183">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>392</v>
@@ -12280,25 +12280,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.02339181286549707</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C184">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="E184">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F184">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>393</v>
@@ -12330,25 +12330,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>394</v>
@@ -12380,25 +12380,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E186">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F186">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>395</v>
@@ -12430,25 +12430,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.02272727272727273</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E187">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F187">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>396</v>
@@ -12480,28 +12480,28 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E188">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F188">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K188">
         <v>0.1538461538461539</v>
@@ -12536,13 +12536,13 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E189">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F189">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
@@ -12580,25 +12580,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E190">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F190">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>398</v>
@@ -12630,25 +12630,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.02127659574468085</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E191">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F191">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>399</v>
@@ -12680,25 +12680,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.02083333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E192">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F192">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>400</v>
@@ -12730,25 +12730,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0202020202020202</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193">
         <v>4</v>
       </c>
       <c r="E193">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F193">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>401</v>
@@ -12780,28 +12780,28 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E194">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F194">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K194">
         <v>0.1515151515151515</v>
@@ -12830,25 +12830,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.01886792452830189</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E195">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F195">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>402</v>
@@ -12880,25 +12880,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.01886792452830189</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="E196">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="F196">
-        <v>0.01000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>403</v>
@@ -12930,25 +12930,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E197">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F197">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>404</v>
@@ -12980,25 +12980,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E198">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F198">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>405</v>
@@ -13030,25 +13030,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E199">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F199">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>406</v>
@@ -13080,25 +13080,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E200">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F200">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>407</v>
@@ -13130,25 +13130,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E201">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F201">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>408</v>
@@ -13180,25 +13180,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E202">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F202">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>409</v>
@@ -13230,25 +13230,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E203">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F203">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>410</v>
@@ -13280,25 +13280,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E204">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F204">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>411</v>
@@ -13333,22 +13333,22 @@
         <v>0.01724137931034483</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E205">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>412</v>
@@ -13380,25 +13380,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>413</v>
@@ -13430,25 +13430,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.01724137931034483</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>414</v>
@@ -13480,25 +13480,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.01694915254237288</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>415</v>
@@ -13530,25 +13530,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.01666666666666667</v>
+        <v>0.015625</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E209">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F209">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>416</v>
@@ -13580,25 +13580,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.01587301587301587</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E210">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F210">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>62</v>
+        <v>194</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>417</v>
@@ -13630,25 +13630,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.015625</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E211">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F211">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>418</v>
@@ -13680,25 +13680,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.01522842639593909</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
         <v>3</v>
       </c>
-      <c r="D212">
-        <v>21</v>
-      </c>
       <c r="E212">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F212">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>119</v>
@@ -13730,25 +13730,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0136986301369863</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E213">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F213">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>419</v>
@@ -13780,25 +13780,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.01351351351351351</v>
+        <v>0.0125</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E214">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>420</v>
@@ -13830,25 +13830,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.01298701298701299</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E215">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F215">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>421</v>
@@ -13880,25 +13880,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0125</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>422</v>
@@ -13930,25 +13930,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.01234567901234568</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E217">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F217">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>423</v>
@@ -13980,25 +13980,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.01176470588235294</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E218">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F218">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>424</v>
@@ -14030,25 +14030,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.01162790697674419</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E219">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="F219">
-        <v>0.14</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>425</v>
@@ -14080,25 +14080,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.01030927835051546</v>
+        <v>0.01</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E220">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F220">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>426</v>
@@ -14130,25 +14130,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01020408163265306</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E221">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F221">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>427</v>
@@ -14180,25 +14180,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.01</v>
+        <v>0.009836065573770493</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E222">
-        <v>0.5</v>
+        <v>0.87</v>
       </c>
       <c r="F222">
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>99</v>
+        <v>604</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>428</v>
@@ -14230,25 +14230,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.009900990099009901</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E223">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F223">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>429</v>
@@ -14280,25 +14280,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.009836065573770493</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C224">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="E224">
-        <v>0.87</v>
+        <v>0.5</v>
       </c>
       <c r="F224">
-        <v>0.13</v>
+        <v>0.5</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>604</v>
+        <v>104</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>430</v>
@@ -14330,28 +14330,28 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.009708737864077669</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E225">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F225">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K225">
         <v>0.1384615384615385</v>
@@ -14380,25 +14380,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.009523809523809525</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E226">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F226">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>431</v>
@@ -14430,25 +14430,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.009523809523809525</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E227">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F227">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>432</v>
@@ -14480,25 +14480,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.009478672985781991</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D228">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E228">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F228">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>433</v>
@@ -14530,25 +14530,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.009345794392523364</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E229">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F229">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>434</v>
@@ -14580,25 +14580,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.009259259259259259</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D230">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="E230">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F230">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>321</v>
+        <v>236</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>435</v>
@@ -14630,25 +14630,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.009009009009009009</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E231">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F231">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>436</v>
@@ -14680,28 +14680,28 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.008403361344537815</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="E232">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F232">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K232">
         <v>0.136</v>
@@ -14730,25 +14730,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.008264462809917356</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E233">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F233">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>437</v>
@@ -14780,25 +14780,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.007575757575757576</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E234">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F234">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>438</v>
@@ -14830,25 +14830,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.007518796992481203</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E235">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F235">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>76</v>
@@ -14880,25 +14880,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.007352941176470588</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D236">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E236">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="F236">
-        <v>0.07999999999999996</v>
+        <v>0.23</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>135</v>
+        <v>942</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>439</v>
@@ -14930,25 +14930,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.006451612903225806</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E237">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="F237">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>440</v>
@@ -14980,25 +14980,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.006329113924050633</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C238">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E238">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="G238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
-        <v>942</v>
+        <v>165</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>441</v>
@@ -15030,28 +15030,28 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.006097560975609756</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="E239">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="F239">
-        <v>0.02000000000000002</v>
+        <v>0.17</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K239">
         <v>0.1325301204819277</v>
@@ -15080,25 +15080,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.006024096385542169</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>442</v>
@@ -15130,28 +15130,28 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.006024096385542169</v>
+        <v>0.005629477993858751</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D241">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="E241">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F241">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>165</v>
+        <v>1943</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K241">
         <v>0.1290322580645161</v>
@@ -15180,25 +15180,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.005847953216374269</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D242">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="E242">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F242">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>170</v>
+        <v>788</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>443</v>
@@ -15230,25 +15230,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.005629477993858751</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="C243">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D243">
-        <v>200</v>
+        <v>71</v>
       </c>
       <c r="E243">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F243">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>1943</v>
+        <v>1090</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>444</v>
@@ -15280,25 +15280,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.005050505050505051</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C244">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244">
-        <v>788</v>
+        <v>251</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>445</v>
@@ -15330,25 +15330,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0045662100456621</v>
+        <v>0.003740648379052369</v>
       </c>
       <c r="C245">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D245">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="E245">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F245">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>1090</v>
+        <v>799</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>446</v>
@@ -15380,28 +15380,28 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.003968253968253968</v>
+        <v>0.003738317757009346</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246">
-        <v>251</v>
+        <v>533</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K246">
         <v>0.1261261261261261</v>
@@ -15430,13 +15430,13 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.003740648379052369</v>
+        <v>0.003436426116838488</v>
       </c>
       <c r="C247">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D247">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="E247">
         <v>0.97</v>
@@ -15448,7 +15448,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>799</v>
+        <v>290</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>447</v>
@@ -15480,25 +15480,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.003738317757009346</v>
+        <v>0.003176844334627603</v>
       </c>
       <c r="C248">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D248">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="E248">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F248">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>533</v>
+        <v>2824</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>448</v>
@@ -15530,25 +15530,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.003436426116838488</v>
+        <v>0.003095975232198143</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E249">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F249">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>449</v>
@@ -15580,25 +15580,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.003176844334627603</v>
+        <v>0.002770083102493075</v>
       </c>
       <c r="C250">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>283</v>
+        <v>56</v>
       </c>
       <c r="E250">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F250">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>2824</v>
+        <v>360</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>450</v>
@@ -15630,25 +15630,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.003095975232198143</v>
+        <v>0.002496878901373283</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D251">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E251">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F251">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>322</v>
+        <v>799</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>451</v>
@@ -15680,25 +15680,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.002770083102493075</v>
+        <v>0.002290575916230366</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D252">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="E252">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F252">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>360</v>
+        <v>3049</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>452</v>
@@ -15730,13 +15730,13 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.002496878901373283</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="C253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="E253">
         <v>0.97</v>
@@ -15748,7 +15748,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>799</v>
+        <v>449</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>453</v>
@@ -15780,25 +15780,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.002290575916230366</v>
+        <v>0.001872659176029963</v>
       </c>
       <c r="C254">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="E254">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F254">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>3049</v>
+        <v>533</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>454</v>
@@ -15826,30 +15826,6 @@
       </c>
     </row>
     <row r="255" spans="1:17">
-      <c r="A255" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B255">
-        <v>0.002222222222222222</v>
-      </c>
-      <c r="C255">
-        <v>1</v>
-      </c>
-      <c r="D255">
-        <v>37</v>
-      </c>
-      <c r="E255">
-        <v>0.97</v>
-      </c>
-      <c r="F255">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255">
-        <v>449</v>
-      </c>
       <c r="J255" s="1" t="s">
         <v>455</v>
       </c>
@@ -15876,30 +15852,6 @@
       </c>
     </row>
     <row r="256" spans="1:17">
-      <c r="A256" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B256">
-        <v>0.001872659176029963</v>
-      </c>
-      <c r="C256">
-        <v>1</v>
-      </c>
-      <c r="D256">
-        <v>12</v>
-      </c>
-      <c r="E256">
-        <v>0.92</v>
-      </c>
-      <c r="F256">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G256" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256">
-        <v>533</v>
-      </c>
       <c r="J256" s="1" t="s">
         <v>456</v>
       </c>
@@ -15953,7 +15905,7 @@
     </row>
     <row r="258" spans="10:17">
       <c r="J258" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K258">
         <v>0.125</v>
@@ -16733,7 +16685,7 @@
     </row>
     <row r="288" spans="10:17">
       <c r="J288" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K288">
         <v>0.1162790697674419</v>
@@ -16889,7 +16841,7 @@
     </row>
     <row r="294" spans="10:17">
       <c r="J294" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K294">
         <v>0.1146067415730337</v>
@@ -16967,7 +16919,7 @@
     </row>
     <row r="297" spans="10:17">
       <c r="J297" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K297">
         <v>0.1129032258064516</v>
@@ -17409,7 +17361,7 @@
     </row>
     <row r="314" spans="10:17">
       <c r="J314" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K314">
         <v>0.1106382978723404</v>
@@ -17435,7 +17387,7 @@
     </row>
     <row r="315" spans="10:17">
       <c r="J315" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K315">
         <v>0.1104294478527607</v>
@@ -17461,7 +17413,7 @@
     </row>
     <row r="316" spans="10:17">
       <c r="J316" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K316">
         <v>0.1102449888641425</v>
@@ -17539,7 +17491,7 @@
     </row>
     <row r="319" spans="10:17">
       <c r="J319" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K319">
         <v>0.1052631578947368</v>
@@ -17695,7 +17647,7 @@
     </row>
     <row r="325" spans="10:17">
       <c r="J325" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K325">
         <v>0.1016949152542373</v>
@@ -18241,7 +18193,7 @@
     </row>
     <row r="346" spans="10:17">
       <c r="J346" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K346">
         <v>0.0990990990990991</v>
@@ -18371,7 +18323,7 @@
     </row>
     <row r="351" spans="10:17">
       <c r="J351" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K351">
         <v>0.09615384615384616</v>
@@ -19151,7 +19103,7 @@
     </row>
     <row r="381" spans="10:17">
       <c r="J381" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K381">
         <v>0.08864915572232646</v>
@@ -19177,7 +19129,7 @@
     </row>
     <row r="382" spans="10:17">
       <c r="J382" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K382">
         <v>0.08844415752098128</v>
@@ -19515,7 +19467,7 @@
     </row>
     <row r="395" spans="10:17">
       <c r="J395" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K395">
         <v>0.08571428571428572</v>
@@ -19593,7 +19545,7 @@
     </row>
     <row r="398" spans="10:17">
       <c r="J398" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K398">
         <v>0.0851063829787234</v>
@@ -19619,7 +19571,7 @@
     </row>
     <row r="399" spans="10:17">
       <c r="J399" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K399">
         <v>0.08490566037735849</v>
@@ -20269,7 +20221,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K424">
         <v>0.08064516129032258</v>
@@ -20295,7 +20247,7 @@
     </row>
     <row r="425" spans="10:17">
       <c r="J425" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K425">
         <v>0.08</v>
@@ -20763,7 +20715,7 @@
     </row>
     <row r="443" spans="10:17">
       <c r="J443" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K443">
         <v>0.07630057803468208</v>
@@ -20789,7 +20741,7 @@
     </row>
     <row r="444" spans="10:17">
       <c r="J444" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K444">
         <v>0.07608695652173914</v>
@@ -20841,7 +20793,7 @@
     </row>
     <row r="446" spans="10:17">
       <c r="J446" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K446">
         <v>0.07534246575342465</v>
@@ -20893,7 +20845,7 @@
     </row>
     <row r="448" spans="10:17">
       <c r="J448" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K448">
         <v>0.07471264367816093</v>
@@ -20919,7 +20871,7 @@
     </row>
     <row r="449" spans="10:17">
       <c r="J449" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K449">
         <v>0.07422680412371134</v>
@@ -21127,7 +21079,7 @@
     </row>
     <row r="457" spans="10:17">
       <c r="J457" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K457">
         <v>0.07142857142857142</v>
@@ -21569,7 +21521,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K474">
         <v>0.07017543859649122</v>
@@ -21673,7 +21625,7 @@
     </row>
     <row r="478" spans="10:17">
       <c r="J478" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K478">
         <v>0.06818181818181818</v>
@@ -22115,7 +22067,7 @@
     </row>
     <row r="495" spans="10:17">
       <c r="J495" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K495">
         <v>0.06593406593406594</v>
@@ -22219,7 +22171,7 @@
     </row>
     <row r="499" spans="10:17">
       <c r="J499" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K499">
         <v>0.06382978723404255</v>
@@ -22245,7 +22197,7 @@
     </row>
     <row r="500" spans="10:17">
       <c r="J500" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K500">
         <v>0.0625</v>
@@ -22609,7 +22561,7 @@
     </row>
     <row r="514" spans="10:17">
       <c r="J514" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K514">
         <v>0.06211180124223602</v>
@@ -23285,7 +23237,7 @@
     </row>
     <row r="540" spans="10:17">
       <c r="J540" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K540">
         <v>0.05709342560553633</v>
@@ -23311,7 +23263,7 @@
     </row>
     <row r="541" spans="10:17">
       <c r="J541" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K541">
         <v>0.05663716814159292</v>
@@ -23467,7 +23419,7 @@
     </row>
     <row r="547" spans="10:17">
       <c r="J547" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K547">
         <v>0.05555555555555555</v>
@@ -23831,7 +23783,7 @@
     </row>
     <row r="561" spans="10:17">
       <c r="J561" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K561">
         <v>0.05521472392638037</v>
@@ -23909,7 +23861,7 @@
     </row>
     <row r="564" spans="10:17">
       <c r="J564" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K564">
         <v>0.05454545454545454</v>
@@ -24481,7 +24433,7 @@
     </row>
     <row r="586" spans="10:17">
       <c r="J586" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K586">
         <v>0.05172413793103448</v>
@@ -24793,7 +24745,7 @@
     </row>
     <row r="598" spans="10:17">
       <c r="J598" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K598">
         <v>0.05</v>
@@ -25001,7 +24953,7 @@
     </row>
     <row r="606" spans="10:17">
       <c r="J606" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K606">
         <v>0.04838709677419355</v>
@@ -25183,7 +25135,7 @@
     </row>
     <row r="613" spans="10:17">
       <c r="J613" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K613">
         <v>0.04761904761904762</v>
@@ -25287,7 +25239,7 @@
     </row>
     <row r="617" spans="10:17">
       <c r="J617" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K617">
         <v>0.04615384615384616</v>
@@ -25495,7 +25447,7 @@
     </row>
     <row r="625" spans="10:17">
       <c r="J625" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K625">
         <v>0.04539762053850971</v>
@@ -25729,7 +25681,7 @@
     </row>
     <row r="634" spans="10:17">
       <c r="J634" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K634">
         <v>0.04347826086956522</v>
@@ -25755,7 +25707,7 @@
     </row>
     <row r="635" spans="10:17">
       <c r="J635" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K635">
         <v>0.04347826086956522</v>
@@ -26457,7 +26409,7 @@
     </row>
     <row r="662" spans="10:17">
       <c r="J662" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K662">
         <v>0.03846153846153846</v>
@@ -26613,7 +26565,7 @@
     </row>
     <row r="668" spans="10:17">
       <c r="J668" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K668">
         <v>0.03703703703703703</v>
@@ -26743,7 +26695,7 @@
     </row>
     <row r="673" spans="10:17">
       <c r="J673" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K673">
         <v>0.03703703703703703</v>
@@ -26821,7 +26773,7 @@
     </row>
     <row r="676" spans="10:17">
       <c r="J676" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K676">
         <v>0.03636363636363636</v>
@@ -26847,7 +26799,7 @@
     </row>
     <row r="677" spans="10:17">
       <c r="J677" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K677">
         <v>0.03571428571428571</v>
@@ -26951,7 +26903,7 @@
     </row>
     <row r="681" spans="10:17">
       <c r="J681" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K681">
         <v>0.03571428571428571</v>
@@ -26977,7 +26929,7 @@
     </row>
     <row r="682" spans="10:17">
       <c r="J682" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K682">
         <v>0.03571428571428571</v>
@@ -27081,7 +27033,7 @@
     </row>
     <row r="686" spans="10:17">
       <c r="J686" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K686">
         <v>0.03508771929824561</v>
@@ -27133,7 +27085,7 @@
     </row>
     <row r="688" spans="10:17">
       <c r="J688" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K688">
         <v>0.03448275862068965</v>
@@ -27679,7 +27631,7 @@
     </row>
     <row r="709" spans="10:17">
       <c r="J709" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K709">
         <v>0.03076923076923077</v>
@@ -27731,7 +27683,7 @@
     </row>
     <row r="711" spans="10:17">
       <c r="J711" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K711">
         <v>0.0303030303030303</v>
@@ -27861,7 +27813,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K716">
         <v>0.0303030303030303</v>
@@ -27887,7 +27839,7 @@
     </row>
     <row r="717" spans="10:17">
       <c r="J717" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K717">
         <v>0.02941176470588235</v>
@@ -28069,7 +28021,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K724">
         <v>0.02803738317757009</v>
@@ -28277,7 +28229,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K732">
         <v>0.02666666666666667</v>
@@ -28355,7 +28307,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K735">
         <v>0.02564102564102564</v>
@@ -28381,7 +28333,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K736">
         <v>0.02564102564102564</v>
@@ -28927,7 +28879,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K757">
         <v>0.02272727272727273</v>
@@ -29109,7 +29061,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K764">
         <v>0.02079002079002079</v>
@@ -29135,7 +29087,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K765">
         <v>0.02022058823529412</v>
@@ -29161,7 +29113,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K766">
         <v>0.0202020202020202</v>
@@ -29681,7 +29633,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K786">
         <v>0.01234567901234568</v>
@@ -29785,7 +29737,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K790">
         <v>0.01</v>
@@ -29837,7 +29789,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K792">
         <v>0.009523809523809525</v>
